--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Nrtn-Ret.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Nrtn-Ret.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -92,6 +92,9 @@
   </si>
   <si>
     <t>Neutrophils</t>
+  </si>
+  <si>
+    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -449,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T5"/>
+  <dimension ref="A1:T6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -555,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.87073</v>
+        <v>0.8639135</v>
       </c>
       <c r="N2">
-        <v>7.74146</v>
+        <v>1.727827</v>
       </c>
       <c r="O2">
-        <v>0.4357780537476825</v>
+        <v>0.1895490737713731</v>
       </c>
       <c r="P2">
-        <v>0.3549718160138305</v>
+        <v>0.1380033232738433</v>
       </c>
       <c r="Q2">
-        <v>0.4692621454550001</v>
+        <v>0.10473525730225</v>
       </c>
       <c r="R2">
-        <v>1.87704858182</v>
+        <v>0.418941029209</v>
       </c>
       <c r="S2">
-        <v>0.4357780537476825</v>
+        <v>0.1895490737713731</v>
       </c>
       <c r="T2">
-        <v>0.3549718160138305</v>
+        <v>0.1380033232738433</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -623,22 +626,22 @@
         <v>10.153155</v>
       </c>
       <c r="O3">
-        <v>0.38102391756409</v>
+        <v>0.7425593442349591</v>
       </c>
       <c r="P3">
-        <v>0.4655560926000913</v>
+        <v>0.8109429541930055</v>
       </c>
       <c r="Q3">
-        <v>0.4103008388975</v>
+        <v>0.4103008388974999</v>
       </c>
       <c r="R3">
-        <v>2.461805033385</v>
+        <v>2.461805033384999</v>
       </c>
       <c r="S3">
-        <v>0.38102391756409</v>
+        <v>0.7425593442349591</v>
       </c>
       <c r="T3">
-        <v>0.4655560926000913</v>
+        <v>0.8109429541930055</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -679,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.967637</v>
+        <v>0.2890925</v>
       </c>
       <c r="N4">
-        <v>1.935274</v>
+        <v>0.5781849999999999</v>
       </c>
       <c r="O4">
-        <v>0.1089393909144389</v>
+        <v>0.06342905349812297</v>
       </c>
       <c r="P4">
-        <v>0.08873878134929972</v>
+        <v>0.04618023185601746</v>
       </c>
       <c r="Q4">
-        <v>0.1173100202395</v>
+        <v>0.03504769559875</v>
       </c>
       <c r="R4">
-        <v>0.469240080958</v>
+        <v>0.140190782395</v>
       </c>
       <c r="S4">
-        <v>0.1089393909144389</v>
+        <v>0.06342905349812297</v>
       </c>
       <c r="T4">
-        <v>0.08873878134929972</v>
+        <v>0.04618023185601746</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -735,34 +738,96 @@
         <v>1</v>
       </c>
       <c r="K5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.6595906666666668</v>
+        <v>0.01599833333333333</v>
       </c>
       <c r="N5">
-        <v>1.978772</v>
+        <v>0.047995</v>
       </c>
       <c r="O5">
-        <v>0.07425863777378852</v>
+        <v>0.003510153811948785</v>
       </c>
       <c r="P5">
-        <v>0.09073331003677852</v>
+        <v>0.003833410116017465</v>
       </c>
       <c r="Q5">
-        <v>0.07996448508733335</v>
+        <v>0.001939533944166667</v>
       </c>
       <c r="R5">
-        <v>0.4797869105240001</v>
+        <v>0.011637203665</v>
       </c>
       <c r="S5">
-        <v>0.07425863777378852</v>
+        <v>0.003510153811948785</v>
       </c>
       <c r="T5">
-        <v>0.09073331003677852</v>
+        <v>0.003833410116017465</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>0.5</v>
+      </c>
+      <c r="G6">
+        <v>0.1212335</v>
+      </c>
+      <c r="H6">
+        <v>0.242467</v>
+      </c>
+      <c r="I6">
+        <v>1</v>
+      </c>
+      <c r="J6">
+        <v>1</v>
+      </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
+      <c r="L6">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M6">
+        <v>0.004340666666666667</v>
+      </c>
+      <c r="N6">
+        <v>0.013022</v>
+      </c>
+      <c r="O6">
+        <v>0.0009523746835961471</v>
+      </c>
+      <c r="P6">
+        <v>0.001040080561116354</v>
+      </c>
+      <c r="Q6">
+        <v>0.0005262342123333334</v>
+      </c>
+      <c r="R6">
+        <v>0.003157405274</v>
+      </c>
+      <c r="S6">
+        <v>0.0009523746835961471</v>
+      </c>
+      <c r="T6">
+        <v>0.001040080561116354</v>
       </c>
     </row>
   </sheetData>
